--- a/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.21530887902506</v>
+        <v>-4.910459712125972</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.1076515229671</v>
+        <v>4.171874714741166</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.592862217278688</v>
+        <v>-8.536728015494543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.416624496220646</v>
+        <v>-1.528209668195809</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>10.11959348313401</v>
+        <v>9.708755257211985</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.279758464225206</v>
+        <v>-3.97270995246978</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.870392727121465</v>
+        <v>-2.0202293301891</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.367292842641923</v>
+        <v>8.660455202047675</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.091054816649655</v>
+        <v>-4.859527858007855</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.983615787218821</v>
+        <v>3.372734234240264</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.00871022595117</v>
+        <v>12.54025539462579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.766843205807208</v>
+        <v>0.9945271279505695</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.140915926136664</v>
+        <v>5.666091072427942</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.34001464891256</v>
+        <v>16.89746707165357</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.280577316270127</v>
+        <v>2.696450798604289</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.08101187030897</v>
+        <v>3.723856737130744</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.16458409256972</v>
+        <v>14.05163160277976</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9840022043506308</v>
+        <v>0.8870204400946897</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06163012649681376</v>
+        <v>-0.07215734328565465</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.05987057431852953</v>
+        <v>0.06023838702042124</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1262048089383242</v>
+        <v>-0.1258505090072129</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0206120362946939</v>
+        <v>-0.022199676055337</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1448102693474612</v>
+        <v>0.140337130361188</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06227559641854437</v>
+        <v>-0.05820021572989092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02722107180243306</v>
+        <v>-0.02923999942967403</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1214652669330993</v>
+        <v>0.1266205646286809</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.0738919872465684</v>
+        <v>-0.07116851805815518</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.06144085811056448</v>
+        <v>0.05244064332400921</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1998557701704382</v>
+        <v>0.193742290077748</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.01141948618267468</v>
+        <v>0.01540128358490907</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.09495502194870874</v>
+        <v>0.08626323843281987</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2630340515433132</v>
+        <v>0.2595126842515803</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05077394158795368</v>
+        <v>0.03993271118055985</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0618143798218543</v>
+        <v>0.05595796538022031</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2131988386268088</v>
+        <v>0.2140598103101346</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.01556282290169314</v>
+        <v>0.01362005188024665</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>17.79580262602701</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.5702958512468936</v>
+        <v>-0.5702958512469047</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.11349146568616</v>
@@ -878,7 +878,7 @@
         <v>17.47977072857346</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.741888688436565</v>
+        <v>-0.7418886884365539</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.102754419242765</v>
+        <v>-0.934753834968026</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>14.21515368136499</v>
+        <v>14.04429277389301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.240337149033081</v>
+        <v>-4.143844633924132</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.514679968276712</v>
+        <v>4.789265515388996</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>14.59457289575932</v>
+        <v>14.52943509946585</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.645445241663426</v>
+        <v>-4.022550047646694</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.916447739002697</v>
+        <v>2.415933108133539</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>15.346499538858</v>
+        <v>15.23430400139101</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.200863879709309</v>
+        <v>-3.145360692417047</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.53764343925585</v>
+        <v>5.430942819117019</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.70418766868152</v>
+        <v>20.01797249777542</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.369579016170652</v>
+        <v>2.531665423996398</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.45586075369952</v>
+        <v>11.64403154855816</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>20.75742750325053</v>
+        <v>20.96661888999444</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.836783057098568</v>
+        <v>2.355879230791714</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.597926476294109</v>
+        <v>7.400248734867699</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>19.62160050468193</v>
+        <v>19.83829687672167</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.532025196995944</v>
+        <v>1.713520438291899</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.3016322669272226</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.009666303568640712</v>
+        <v>-0.009666303568640901</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.08739308849476506</v>
@@ -983,7 +983,7 @@
         <v>0.2987413121545985</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.01267938828819416</v>
+        <v>-0.01267938828819398</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01847339110447945</v>
+        <v>-0.01540378947284934</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2364131622407405</v>
+        <v>0.2349873037085468</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.07160211917043713</v>
+        <v>-0.06936605698188569</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.07637663618595762</v>
+        <v>0.07933710143743511</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2401329618445024</v>
+        <v>0.2398094183539256</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05957203673036007</v>
+        <v>-0.06590669056247736</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04894822778958495</v>
+        <v>0.03970359760708905</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2547426932377263</v>
+        <v>0.2526781111626605</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.05323461395466762</v>
+        <v>-0.05290434142522887</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.09836446757470488</v>
+        <v>0.09551232449085575</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3683863284261859</v>
+        <v>0.3575181548636475</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0421412651073732</v>
+        <v>0.04529919088977429</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2005458118072221</v>
+        <v>0.2042874998355755</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3632924298792268</v>
+        <v>0.3712046267622121</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04924450827236043</v>
+        <v>0.04114179313070733</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1328914197325769</v>
+        <v>0.1300319632558726</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3424676904615115</v>
+        <v>0.3500938515575244</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.02687287671976382</v>
+        <v>0.02995815276157934</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>10.16084000040843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-5.591706967200116</v>
+        <v>-5.591706967200127</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5.21834309484539</v>
@@ -1083,7 +1083,7 @@
         <v>13.19168776674269</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.771987002059701</v>
+        <v>-3.771987002059718</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.292705991627232</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.949571706627886</v>
+        <v>-5.473550716900928</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.961639699599748</v>
+        <v>4.104962552574925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.67817447304521</v>
+        <v>-10.78128188826912</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.328554934931802</v>
+        <v>-0.9723746507434532</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.89277852948479</v>
+        <v>6.360260994443848</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.504089562494238</v>
+        <v>-9.558282402193848</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.370145866908908</v>
+        <v>-1.771372525875512</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.237515613457836</v>
+        <v>6.853304718096967</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-8.988223563336128</v>
+        <v>-9.144996281713302</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.866483822715725</v>
+        <v>7.859564218662471</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.21025494265331</v>
+        <v>15.76447549894299</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4348012322969924</v>
+        <v>1.391689113218004</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.68561019135169</v>
+        <v>12.60212313679153</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>19.46669238403787</v>
+        <v>19.39152422941467</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.639778397331876</v>
+        <v>2.103062192135682</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.840856324014362</v>
+        <v>7.799649183571751</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.99230639883669</v>
+        <v>15.68480719599519</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.3751631458715562</v>
+        <v>-0.9024794949851733</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1791083803483262</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.09856680926354572</v>
+        <v>-0.09856680926354591</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.100898229476293</v>
@@ -1188,7 +1188,7 @@
         <v>0.2550652410691762</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.07293250045044999</v>
+        <v>-0.07293250045045031</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.06052668366011022</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0838722811633517</v>
+        <v>-0.09032928596345302</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.06622207779265868</v>
+        <v>0.07134206058261659</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1954029775738603</v>
+        <v>-0.1811310618745869</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.02210256131802141</v>
+        <v>-0.01805346117618154</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1258851594953179</v>
+        <v>0.1120232229365265</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1678479946664206</v>
+        <v>-0.1714367283037628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02395930520039935</v>
+        <v>-0.0313000258445321</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1268825508425959</v>
+        <v>0.1202638026324878</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1589629340657823</v>
+        <v>-0.1620889345413098</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1452974794929692</v>
+        <v>0.1450741256687809</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3062282509863086</v>
+        <v>0.2984288852635781</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.005647482594852352</v>
+        <v>0.02652533213250803</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2436811486755621</v>
+        <v>0.2606468073911241</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4044706264546401</v>
+        <v>0.4025657420548221</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0349173363909129</v>
+        <v>0.04475200010116342</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1486864303226501</v>
+        <v>0.1503402294336853</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3053258956729021</v>
+        <v>0.3064333467623797</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.007216275493248865</v>
+        <v>-0.01730319834301432</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>14.07029327510644</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.409644027999792</v>
+        <v>-3.409644027999781</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.221931139290454</v>
+        <v>-1.183532439523148</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>11.03462051712419</v>
+        <v>11.11415579428019</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.348322377292756</v>
+        <v>-6.379253719211402</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.072569024717705</v>
+        <v>3.259894625901257</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>12.57824535033218</v>
+        <v>12.69601490771354</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.312352126828649</v>
+        <v>-5.336211343790822</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.828518163606561</v>
+        <v>1.67669714712617</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>12.54792710246186</v>
+        <v>12.49265618719715</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.187118586128104</v>
+        <v>-5.111138695685087</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.577836798198286</v>
+        <v>3.458940842224016</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.58161802272407</v>
+        <v>15.75333034802619</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.200192923859184</v>
+        <v>-1.237975908821041</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.853492139477844</v>
+        <v>8.115081281302903</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.30909414506041</v>
+        <v>17.20215998334139</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.6703282930263846</v>
+        <v>-0.9368571524007805</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.09631273982633</v>
+        <v>5.255693018305466</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>15.79734750336861</v>
+        <v>15.73018744186642</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.866062010099704</v>
+        <v>-1.708830746198476</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.2307517038832195</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.0559178940845669</v>
+        <v>-0.05591789408456672</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01977638985851554</v>
+        <v>-0.01922905809834625</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1775189594514952</v>
+        <v>0.1775387800813459</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.102398046868623</v>
+        <v>-0.1034267381362756</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0487676199396949</v>
+        <v>0.05232713232820118</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2012892229161602</v>
+        <v>0.2038352926413742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08456924051486726</v>
+        <v>-0.0856616087931189</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02933744003258879</v>
+        <v>0.02698544658116789</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2017582057158262</v>
+        <v>0.2012149321887587</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08364177259311327</v>
+        <v>-0.08284231835026903</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.06036514689290953</v>
+        <v>0.05864514854485182</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2603543631311975</v>
+        <v>0.2623422421162739</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.02026187714477271</v>
+        <v>-0.02123958660589257</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1312582551186033</v>
+        <v>0.1355754873467019</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2904882015315019</v>
+        <v>0.2901015261943833</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.01125546741134116</v>
+        <v>-0.01546168730662214</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08451905667417112</v>
+        <v>0.08660586980790398</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.262191063529614</v>
+        <v>0.2626127796861096</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.03082318916851668</v>
+        <v>-0.02830913556899301</v>
       </c>
     </row>
     <row r="28">
